--- a/data/trans_dic/P2A_ner_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P2A_ner_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,75</t>
+          <t>0,59; 2,88</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,42; 2,52</t>
+          <t>0,46; 2,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,46; 4,82</t>
+          <t>1,4; 4,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,3; 9,74</t>
+          <t>2,22; 9,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,17; 3,75</t>
+          <t>1,18; 3,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,7; 3,03</t>
+          <t>0,67; 3,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,28; 6,56</t>
+          <t>2,42; 6,37</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,83; 11,87</t>
+          <t>3,96; 12,23</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,08; 2,79</t>
+          <t>1,09; 2,75</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,76; 2,4</t>
+          <t>0,77; 2,37</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,22; 4,76</t>
+          <t>2,21; 4,66</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,65; 9,35</t>
+          <t>3,66; 9,03</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,29; 3,31</t>
+          <t>1,22; 3,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,5</t>
+          <t>0,67; 2,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,28; 3,85</t>
+          <t>1,23; 3,8</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,17; 7,56</t>
+          <t>2,06; 6,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,15; 3,79</t>
+          <t>1,15; 3,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,86; 4,75</t>
+          <t>1,9; 4,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,09; 5,27</t>
+          <t>2,17; 5,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,23; 7,81</t>
+          <t>3,31; 7,91</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,5; 2,99</t>
+          <t>1,44; 3,03</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,44; 3,1</t>
+          <t>1,5; 3,11</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,92; 3,9</t>
+          <t>2,12; 3,99</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,39; 6,64</t>
+          <t>3,28; 6,83</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,89; 4,82</t>
+          <t>1,98; 5,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,19; 6,65</t>
+          <t>3,21; 6,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,52; 5,48</t>
+          <t>2,5; 5,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,93; 8,26</t>
+          <t>3,95; 8,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,12; 6,62</t>
+          <t>3,12; 6,57</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,19; 6,53</t>
+          <t>3,23; 6,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,13; 10,38</t>
+          <t>6,17; 10,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,55; 6,62</t>
+          <t>3,58; 6,86</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,87; 5,19</t>
+          <t>2,88; 5,19</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,61; 6,0</t>
+          <t>3,67; 5,93</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,75; 7,2</t>
+          <t>4,69; 7,17</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,22; 6,94</t>
+          <t>4,28; 7,06</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,15; 3,89</t>
+          <t>1,18; 3,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,72; 4,77</t>
+          <t>1,72; 5,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,73; 7,43</t>
+          <t>3,78; 7,31</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,52; 9,95</t>
+          <t>5,37; 9,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,81; 8,04</t>
+          <t>3,81; 7,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,7; 7,29</t>
+          <t>3,78; 7,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,95; 15,31</t>
+          <t>9,84; 15,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,87; 9,01</t>
+          <t>5,91; 9,11</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,82; 5,22</t>
+          <t>2,84; 5,15</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,16; 5,57</t>
+          <t>3,1; 5,43</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,18; 10,4</t>
+          <t>7,21; 10,43</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,02; 8,83</t>
+          <t>6,02; 8,84</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,29; 6,39</t>
+          <t>2,47; 6,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,88; 5,24</t>
+          <t>1,87; 5,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,84; 10,15</t>
+          <t>5,02; 9,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,48; 8,47</t>
+          <t>4,49; 8,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,68; 8,15</t>
+          <t>3,61; 8,02</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,71; 8,07</t>
+          <t>3,76; 8,48</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>15,07; 22,63</t>
+          <t>15,21; 22,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,7; 10,32</t>
+          <t>6,56; 10,04</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,54; 6,62</t>
+          <t>3,58; 6,67</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,2; 6,05</t>
+          <t>3,14; 5,84</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10,92; 15,51</t>
+          <t>11,11; 15,48</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,01; 8,52</t>
+          <t>6,01; 8,53</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,49; 5,74</t>
+          <t>2,49; 5,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,05; 6,81</t>
+          <t>3,04; 6,83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,53; 7,98</t>
+          <t>4,45; 8,14</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,46; 8,69</t>
+          <t>5,3; 8,64</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,31; 9,27</t>
+          <t>5,36; 9,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,11; 9,97</t>
+          <t>6,0; 9,94</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>13,97; 19,52</t>
+          <t>13,92; 19,66</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>8,2; 43,35</t>
+          <t>8,34; 39,68</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,44; 7,17</t>
+          <t>4,41; 7,09</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>5,26; 8,02</t>
+          <t>5,17; 7,9</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>10,46; 14,06</t>
+          <t>10,19; 13,87</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>7,61; 33,2</t>
+          <t>7,62; 31,52</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,25; 3,39</t>
+          <t>2,22; 3,28</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,48; 3,73</t>
+          <t>2,48; 3,72</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,8; 5,24</t>
+          <t>3,85; 5,29</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,27; 7,2</t>
+          <t>5,3; 7,13</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,87; 5,37</t>
+          <t>3,8; 5,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,22; 5,68</t>
+          <t>4,31; 5,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,96; 12,2</t>
+          <t>9,96; 12,11</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,97; 19,12</t>
+          <t>6,87; 19,21</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,22; 4,14</t>
+          <t>3,2; 4,13</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>3,54; 4,54</t>
+          <t>3,53; 4,53</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>7,16; 8,53</t>
+          <t>7,22; 8,59</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>6,46; 14,12</t>
+          <t>6,48; 13,16</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2A_ner_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P2A_ner_R-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>1,97%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,22; 9,62</t>
+          <t>0,0; 4,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,96; 12,23</t>
+          <t>0,71; 5,77</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,66; 9,03</t>
+          <t>0,81; 4,29</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>4,72%</t>
+          <t>2,63%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,06; 6,88</t>
+          <t>1,02; 5,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,31; 7,91</t>
+          <t>1,42; 5,03</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,28; 6,83</t>
+          <t>1,57; 4,34</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,7 +936,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>3,38%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -951,12 +951,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,92%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -971,12 +971,12 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>3,02%</t>
         </is>
       </c>
     </row>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,98; 5,03</t>
+          <t>2,13; 5,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -1019,12 +1019,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,95; 8,53</t>
+          <t>2,08; 5,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,12; 6,57</t>
+          <t>3,27; 6,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -1039,12 +1039,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,58; 6,86</t>
+          <t>1,56; 4,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,88; 5,19</t>
+          <t>3,04; 5,35</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,28; 7,06</t>
+          <t>2,19; 4,27</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,36%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>4,08%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,37; 9,6</t>
+          <t>1,22; 5,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,91; 9,11</t>
+          <t>3,79; 6,4</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,02; 8,84</t>
+          <t>2,42; 5,44</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>5,16%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,49; 8,35</t>
+          <t>2,63; 5,94</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,56; 10,04</t>
+          <t>4,97; 8,01</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,01; 8,53</t>
+          <t>4,13; 6,46</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,91%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>4,1%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6,81%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>7,04%</t>
+          <t>7,09%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>9,41%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>16,71%</t>
+          <t>16,43%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>18,63%</t>
+          <t>37,9%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>6,47%</t>
+          <t>7,09%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>12,09%</t>
+          <t>10,64%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>13,85%</t>
+          <t>24,88%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,49; 5,67</t>
+          <t>2,32; 6,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,04; 6,83</t>
+          <t>2,47; 7,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,45; 8,14</t>
+          <t>2,39; 6,54</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>5,3; 8,64</t>
+          <t>1,98; 5,12</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,36; 9,37</t>
+          <t>4,85; 9,88</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,0; 9,94</t>
+          <t>6,61; 12,6</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>13,92; 19,66</t>
+          <t>12,65; 20,51</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>8,34; 39,68</t>
+          <t>5,79; 77,31</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,41; 7,09</t>
+          <t>4,14; 7,73</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>5,17; 7,9</t>
+          <t>5,36; 9,2</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>10,19; 13,87</t>
+          <t>8,22; 13,12</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>7,62; 31,52</t>
+          <t>4,58; 65,92</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,51%</t>
+          <t>8,51%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>6,98%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>11,03%</t>
+          <t>16,97%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>9,83%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>5,63%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>13,66%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>8,1%</t>
+          <t>5,44%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,22; 3,28</t>
+          <t>1,65; 6,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
+          <t>2,43; 8,91</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>5,54; 11,97</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>3,23; 7,75</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>4,5; 10,14</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>4,13; 9,31</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>13,06; 21,78</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>4,31; 7,42</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>3,98; 8,25</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>4,06; 8,02</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>10,86; 16,66</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>4,35; 6,81</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>2,77%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>3,07%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>4,51%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>3,27%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>4,59%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>4,93%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>11,03%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>9,8%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>3,69%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>4,02%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>7,84%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>6,65%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>2,26; 3,35</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
           <t>2,48; 3,72</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>3,85; 5,29</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>5,3; 7,13</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>3,8; 5,33</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>2,55; 4,0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>3,85; 5,38</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>4,31; 5,77</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>9,96; 12,11</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>6,87; 19,21</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>3,2; 4,13</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>4,36; 25,93</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>3,24; 4,18</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>3,53; 4,53</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>7,22; 8,59</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>6,48; 13,16</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>3,76; 15,91</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P2A_ner_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P2A_ner_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,59; 2,88</t>
+          <t>0,57; 2,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,69</t>
+          <t>0,44; 2,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,4; 4,73</t>
+          <t>1,3; 4,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,98</t>
+          <t>0,0; 5,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,18; 3,87</t>
+          <t>1,18; 3,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,67; 3,05</t>
+          <t>0,7; 3,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,42; 6,37</t>
+          <t>2,44; 6,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,71; 5,77</t>
+          <t>0,6; 5,83</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,09; 2,75</t>
+          <t>1,11; 2,79</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,77; 2,37</t>
+          <t>0,76; 2,39</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,21; 4,66</t>
+          <t>2,22; 4,66</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,81; 4,29</t>
+          <t>0,77; 4,4</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,22; 3,22</t>
+          <t>1,21; 3,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,67; 2,42</t>
+          <t>0,67; 2,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,23; 3,8</t>
+          <t>1,33; 3,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,02; 5,0</t>
+          <t>0,94; 5,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,15; 3,66</t>
+          <t>1,18; 3,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,9; 4,7</t>
+          <t>1,86; 4,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,17; 5,49</t>
+          <t>2,28; 5,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,42; 5,03</t>
+          <t>1,43; 5,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,44; 3,03</t>
+          <t>1,38; 2,98</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1,5; 3,11</t>
+          <t>1,52; 3,08</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,12; 3,99</t>
+          <t>2,02; 3,88</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,57; 4,34</t>
+          <t>1,57; 4,18</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,13; 5,15</t>
+          <t>2,06; 5,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,21; 6,83</t>
+          <t>3,01; 6,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,5; 5,46</t>
+          <t>2,43; 5,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,08; 5,62</t>
+          <t>2,08; 5,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,27; 6,79</t>
+          <t>3,16; 6,82</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,23; 6,79</t>
+          <t>3,31; 6,68</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,17; 10,07</t>
+          <t>5,94; 9,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,56; 4,02</t>
+          <t>1,73; 3,97</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,04; 5,35</t>
+          <t>2,99; 5,31</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,67; 5,93</t>
+          <t>3,63; 6,22</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,69; 7,17</t>
+          <t>4,66; 7,14</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,19; 4,27</t>
+          <t>2,15; 4,08</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,18; 3,73</t>
+          <t>1,19; 3,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,72; 5,05</t>
+          <t>1,71; 5,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,78; 7,31</t>
+          <t>3,75; 7,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,22; 5,27</t>
+          <t>1,25; 5,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,81; 7,85</t>
+          <t>3,65; 7,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,78; 7,6</t>
+          <t>3,76; 7,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,84; 15,13</t>
+          <t>9,67; 15,23</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,79; 6,4</t>
+          <t>3,69; 6,46</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,84; 5,15</t>
+          <t>2,85; 5,23</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,1; 5,43</t>
+          <t>3,16; 5,63</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,21; 10,43</t>
+          <t>7,29; 10,47</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,42; 5,44</t>
+          <t>2,25; 5,29</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,47; 6,52</t>
+          <t>2,38; 6,58</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,87; 5,47</t>
+          <t>1,93; 5,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,02; 9,83</t>
+          <t>5,0; 10,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,63; 5,94</t>
+          <t>2,56; 5,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,61; 8,02</t>
+          <t>3,5; 8,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,76; 8,48</t>
+          <t>3,62; 8,03</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>15,21; 22,19</t>
+          <t>15,27; 22,48</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,97; 8,01</t>
+          <t>4,98; 7,98</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,58; 6,67</t>
+          <t>3,56; 6,42</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>3,14; 5,84</t>
+          <t>3,19; 6,03</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>11,11; 15,48</t>
+          <t>10,82; 15,22</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,13; 6,46</t>
+          <t>4,17; 6,28</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,32; 6,61</t>
+          <t>2,44; 6,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,47; 7,19</t>
+          <t>2,5; 7,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,39; 6,54</t>
+          <t>2,38; 6,84</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,98; 5,12</t>
+          <t>1,96; 5,07</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,85; 9,88</t>
+          <t>4,84; 10,25</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,61; 12,6</t>
+          <t>6,83; 12,69</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>12,65; 20,51</t>
+          <t>12,81; 20,5</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,79; 77,31</t>
+          <t>5,79; 73,87</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,14; 7,73</t>
+          <t>4,21; 7,69</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>5,36; 9,2</t>
+          <t>5,26; 9,2</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>8,22; 13,12</t>
+          <t>8,56; 13,3</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,58; 65,92</t>
+          <t>4,53; 58,93</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,65; 6,56</t>
+          <t>1,73; 6,89</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,43; 8,91</t>
+          <t>2,49; 8,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,54; 11,97</t>
+          <t>5,85; 12,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,23; 7,75</t>
+          <t>3,3; 7,86</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,5; 10,14</t>
+          <t>4,54; 10,46</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>4,13; 9,31</t>
+          <t>4,15; 9,18</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>13,06; 21,78</t>
+          <t>13,12; 21,48</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,31; 7,42</t>
+          <t>4,39; 7,53</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,98; 8,25</t>
+          <t>3,88; 7,83</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>4,06; 8,02</t>
+          <t>4,02; 7,88</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>10,86; 16,66</t>
+          <t>11,0; 16,75</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>4,35; 6,81</t>
+          <t>4,3; 6,83</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,26; 3,35</t>
+          <t>2,22; 3,4</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,48; 3,72</t>
+          <t>2,48; 3,66</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>3,85; 5,29</t>
+          <t>3,83; 5,28</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>2,55; 4,0</t>
+          <t>2,57; 4,1</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>3,85; 5,38</t>
+          <t>3,83; 5,36</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>4,31; 5,77</t>
+          <t>4,28; 5,83</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>9,96; 12,11</t>
+          <t>10,01; 12,16</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4,36; 25,93</t>
+          <t>4,34; 26,62</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>3,24; 4,18</t>
+          <t>3,25; 4,19</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>3,53; 4,53</t>
+          <t>3,54; 4,51</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>7,22; 8,59</t>
+          <t>7,13; 8,52</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>3,76; 15,91</t>
+          <t>3,74; 16,58</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares con personas con problemas de nervios, depresión o trastorno mental</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>6871</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>5620</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>10682</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>6186</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>10210</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>6922</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>16008</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>7834</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>17081</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>12542</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>26690</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>14020</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2813; 13201</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>2012; 11288</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>5471; 18659</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 20024</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>5521; 18036</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>3031; 14048</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>9669; 25670</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1868; 18271</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>10637; 26865</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>6719; 21174</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>18084; 38016</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>5462; 31391</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>15413</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>9324</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>13657</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>10001</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>13345</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>18550</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>19470</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>14579</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>28758</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>27873</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>33127</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>24581</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>8930; 25231</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>4591; 16707</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>7832; 23379</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>3984; 21397</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>7361; 22285</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>11373; 29598</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>12866; 29646</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>7333; 26363</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>18764; 40507</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>19665; 39974</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>23297; 44722</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>14736; 39091</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>21608</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>31593</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>25290</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>18335</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>32387</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>33707</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>52634</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>15784</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>53995</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>65299</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>77924</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>34118</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>13154; 32756</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>20551; 44608</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>16259; 35853</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>11177; 30070</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>21807; 47037</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>23530; 47516</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>39268; 65628</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>10218; 23527</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>39715; 70512</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>50519; 86584</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>61981; 95022</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>24314; 46024</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>11665</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>18535</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>34082</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>29896</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>28716</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>33075</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>79496</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>35459</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>40381</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>51610</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>113578</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>65354</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>6158; 19784</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>10529; 31030</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>24215; 47319</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>11131; 48126</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>18806; 39899</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>23197; 46554</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>62751; 98864</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>26283; 46080</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>29478; 54123</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>38896; 69336</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>94396; 135580</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>36027; 84679</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>15701</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>14095</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>33888</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>22236</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>22670</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>25075</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>93228</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>35024</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>38371</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>39170</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>127115</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>57261</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>9217; 25428</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>8294; 22058</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>23916; 47813</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>14345; 32470</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>14138; 32860</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>16225; 35959</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>75868; 111710</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>27299; 43726</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>28152; 50791</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>27960; 52859</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>105491; 148324</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>46201; 69708</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>12360</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>13755</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>13704</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>12356</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>24311</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>33319</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>62072</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>230594</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>36671</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>47073</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>75776</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>242950</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>7135; 20219</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>7732; 22096</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>7948; 22880</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>7225; 18656</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>16588; 35141</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>24194; 44933</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>48395; 77451</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>35240; 449430</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>26730; 48848</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>34939; 61048</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>60933; 94680</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>44250; 575514</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>7301</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>12297</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>21871</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>14112</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>23315</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>24916</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>67893</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>24443</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>30616</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>37213</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>89764</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>38555</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>3639; 14458</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>6229; 21512</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>15036; 31439</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>9330; 22214</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>15169; 34926</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>16128; 35697</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>52519; 85962</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>18708; 32059</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>21101; 42605</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>25675; 50349</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>72273; 110080</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>30504; 48407</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>505</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>386</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>90919</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>105218</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>153173</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>113122</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>154955</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>175563</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>390800</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>363717</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>245873</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>280781</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>543973</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>476840</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>72645; 111320</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>84953; 125556</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>130162; 179186</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>88845; 141740</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>129417; 181201</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>152205; 207429</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>354888; 430916</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>161276; 988032</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>216538; 278899</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>247516; 314833</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>495007; 591483</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>268313; 1189282</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>